--- a/medicine/Mort/La_Petite_Mort_(bande_dessinée)/La_Petite_Mort_(bande_dessinée).xlsx
+++ b/medicine/Mort/La_Petite_Mort_(bande_dessinée)/La_Petite_Mort_(bande_dessinée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Petite_Mort_(bande_dessin%C3%A9e)</t>
+          <t>La_Petite_Mort_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Petite Mort est une série de bandes dessinées scénarisée et dessinée par Davy Mourier[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Petite Mort est une série de bandes dessinées scénarisée et dessinée par Davy Mourier.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Petite_Mort_(bande_dessin%C3%A9e)</t>
+          <t>La_Petite_Mort_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Petite Mort, t.  1, Paris, Delcourt, coll. « Humour de rire », 4 septembre 2013  (ISBN 978-2-7560-4256-5)
 La Petite Mort, t.  2 : Le Secret de la licorne-sirène, Paris, Delcourt, coll. « Humour de rire », 8 octobre 2014  (ISBN 978-2-7560-5442-1)
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Petite_Mort_(bande_dessin%C3%A9e)</t>
+          <t>La_Petite_Mort_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour accompagner la sortie du tome 1, un jeu vidéo La Petite Mort est sorti sur iOS en 2013[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour accompagner la sortie du tome 1, un jeu vidéo La Petite Mort est sorti sur iOS en 2013.
 Une web-série d'animation La Petite Mort est diffusée depuis 2017.
-Un jeu de société dérivé de la bande dessinée sort en 2018[3].
+Un jeu de société dérivé de la bande dessinée sort en 2018.
 </t>
         </is>
       </c>
